--- a/DateBase/orders/Dang Nguyen_2025-9-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-8.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,10 +1196,48 @@
       <c r="A91" t="str">
         <v>4</v>
       </c>
+      <c r="C91" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F95" t="str">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L95"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1257,7 +1295,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0341516141111011116510101065551551055155151010101055105551055102020255520101010101010105105510552010101010555610101487651561084126951030</v>
+        <v>03415161411110111165101010655515510551551510101010551055510551020202555201010101010101051055105520101010105556101014876515610841269510365269</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-8.xlsx
@@ -1297,6 +1297,9 @@
       <c r="G2" t="str">
         <v>03415161411110111165101010655515510551551510101010551055510551020202555201010101010101051055105520101010105556101014876515610841269510365269</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
